--- a/excel/oil_202308.xlsx
+++ b/excel/oil_202308.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH71"/>
+  <dimension ref="A1:AI62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -448,160 +448,165 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>部門</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>08/1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>08/2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>08/3</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>08/4</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>08/5</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>08/6</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>08/7</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>08/8</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>08/9</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>08/10</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>08/11</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>08/12</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>08/13</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>08/14</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>08/15</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>08/16</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>08/17</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>08/18</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>08/19</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>08/20</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>08/21</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>08/22</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>08/23</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>08/24</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>08/25</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>08/26</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>08/27</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>08/28</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>08/29</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>08/30</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>08/31</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>總計</t>
         </is>
@@ -610,17 +615,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>郭家渝</t>
+          <t>陳智倫</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Zoe Kuo</t>
+          <t>Frank Chen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -735,7 +740,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>683</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -776,23 +781,28 @@
       <c r="AH2" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>683</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>陳寶慧</t>
+          <t>黃冠叡</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bao Chen</t>
+          <t>Ray Huang</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA35C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -807,7 +817,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1473</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -827,7 +837,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1611</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -842,7 +852,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1486</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -852,7 +862,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1751</t>
+          <t>1288</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -867,7 +877,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>1844</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -907,7 +917,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1324</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -947,24 +957,29 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>8165</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>2612</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>李泰儀</t>
+          <t>劉家瑜</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tyron Lee</t>
+          <t>Scott Liu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA371</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1099,7 +1114,7 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1417</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1114,29 +1129,34 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>1739</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>1739</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>1417</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>蔡俊輝</t>
+          <t>林育田</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alex Tsai</t>
+          <t>Kevin Lin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA371</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1281,7 +1301,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1935</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1292,23 +1312,28 @@
       <c r="AH5" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>1935</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>張維辛</t>
+          <t>陳緯綺</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Darren Chang</t>
+          <t>Vicky Chen</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA371</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1428,7 +1453,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>1051</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1448,7 +1473,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>1378</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1458,29 +1483,34 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>2319</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>2153</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>孫偉恭</t>
+          <t>陳聿恩</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Peter Sun</t>
+          <t>Kitty Chen</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1595,7 +1625,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>800</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1636,23 +1666,28 @@
       <c r="AH7" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>800</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>王耀鋒</t>
+          <t>葉美妙</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Max Wang</t>
+          <t>Karen Yeh</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1782,7 +1817,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1290</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -1808,23 +1843,28 @@
       <c r="AH8" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>1290</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>郭家渝</t>
+          <t>張潔宜</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Zoe Kuo</t>
+          <t>Vivi Chang</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1944,7 +1984,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1964,7 +2004,7 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1226</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -1980,23 +2020,28 @@
       <c r="AH9" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>2376</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>黃承緯</t>
+          <t>朱傑</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Eric Huang</t>
+          <t>Jason Chu</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2106,7 +2151,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1172</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2141,7 +2186,7 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1572</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
@@ -2152,23 +2197,28 @@
       <c r="AH10" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>2744</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>郭亮均</t>
+          <t>徐茂家</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Joy Kuo</t>
+          <t>Mark Hsu</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA375</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2278,7 +2328,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1523</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2324,23 +2374,28 @@
       <c r="AH11" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>1523</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>李漩靜</t>
+          <t>許少凱</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Jamie Lee</t>
+          <t>Kent Hsu</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA375</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2445,7 +2500,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>1217</t>
+          <t>1591</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2460,7 +2515,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>1124</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2480,7 +2535,7 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>1623</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -2490,29 +2545,34 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1146</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>3617</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>5484</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>李品于</t>
+          <t>劉學仁</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Spring Lee</t>
+          <t>Jason Liu</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA375</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2652,7 +2712,7 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>1080</t>
+          <t>2212</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
@@ -2667,24 +2727,29 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>1080</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>2212</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>徐世峰</t>
+          <t>鄭捷齡</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sam Hsu</t>
+          <t>Cynthia Cheng</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2794,7 +2859,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1267</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2824,7 +2889,7 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1077</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
@@ -2840,23 +2905,28 @@
       <c r="AH14" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>2344</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>江德蓉</t>
+          <t>吳燕華</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Leila Jiang</t>
+          <t>Isabel Wu</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2956,7 +3026,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>1534</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
@@ -3001,7 +3071,7 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1506</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
@@ -3011,24 +3081,29 @@
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>1534</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>1506</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>李子豪</t>
+          <t>沈麗玉</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Howard Lee</t>
+          <t>Lillian Shan</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3143,7 +3218,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1499</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -3153,7 +3228,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1510</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
@@ -3168,7 +3243,7 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>950</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
@@ -3178,29 +3253,34 @@
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1630</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>5589</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>徐茂家</t>
+          <t>林子玲</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mark Hsu</t>
+          <t>Missy Lin</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3325,7 +3405,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1058</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -3356,23 +3436,28 @@
       <c r="AH17" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>1058</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>陳竑廷</t>
+          <t>董宇珊</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Jeff Chen</t>
+          <t>Joanne Tung</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3477,12 +3562,12 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1616</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>1249</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -3507,17 +3592,17 @@
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>1030</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1397</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>1344</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
@@ -3527,24 +3612,29 @@
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>3623</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>3013</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>許少凱</t>
+          <t>李羚榕</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Kent Hsu</t>
+          <t>Alison Lee</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3644,12 +3734,12 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>1591</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1370</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -3679,7 +3769,7 @@
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>1623</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
@@ -3689,7 +3779,7 @@
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>1146</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
@@ -3699,24 +3789,29 @@
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>4360</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>1370</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>陳聿恩</t>
+          <t>張榕珊</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Kitty Chen</t>
+          <t>Sandy Chang</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3826,7 +3921,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1305</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -3861,7 +3956,7 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1623</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
@@ -3872,23 +3967,28 @@
       <c r="AH20" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>2928</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>吳國彰</t>
+          <t>林威宇</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Justin Wu</t>
+          <t>Will Lin</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -3993,7 +4093,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1088</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -4028,7 +4128,7 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1151</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
@@ -4044,23 +4144,28 @@
       <c r="AH21" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>2239</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>黃式賢</t>
+          <t>林彥廷</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Shiny Huang</t>
+          <t>Tim Lin</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4180,7 +4285,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>990</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -4216,23 +4321,28 @@
       <c r="AH22" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>990</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>葉美妙</t>
+          <t>陳楨紘</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Karen Yeh</t>
+          <t>Jane Chen</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4337,7 +4447,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1022</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -4352,7 +4462,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1171</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -4377,7 +4487,7 @@
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1104</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
@@ -4388,23 +4498,28 @@
       <c r="AH23" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>3297</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>張潔宜</t>
+          <t>徐世峰</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Vivi Chang</t>
+          <t>Sam Hsu</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA381</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4534,7 +4649,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
@@ -4560,23 +4675,28 @@
       <c r="AH24" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>1230</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>朱傑</t>
+          <t>王素珍</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Jason Chu</t>
+          <t>Carol Wang</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA381</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4716,7 +4836,7 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1742</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
@@ -4732,23 +4852,28 @@
       <c r="AH25" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>1742</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>劉學仁</t>
+          <t>陳寶慧</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Jason Liu</t>
+          <t>Bao Chen</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA39</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -4768,7 +4893,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1473</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -4788,7 +4913,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1611</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -4803,7 +4928,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1486</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -4813,7 +4938,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1751</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -4828,7 +4953,7 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1844</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
@@ -4863,12 +4988,12 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1656</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1204</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -4888,7 +5013,7 @@
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1585</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
@@ -4898,29 +5023,34 @@
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1269</t>
         </is>
       </c>
       <c r="AH26" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>13879</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>徐韡庭</t>
+          <t>林雅雪</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ada Hsu</t>
+          <t>Cher Lin</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA41</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5040,7 +5170,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>495</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -5070,29 +5200,34 @@
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1425</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>1920</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>江晏如</t>
+          <t>孫偉恭</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Jessika Jiang</t>
+          <t>Peter Sun</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4B</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -5202,12 +5337,12 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>1321</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3410</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -5227,7 +5362,7 @@
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>1079</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
@@ -5242,29 +5377,34 @@
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>3669</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>3410</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>李羚榕</t>
+          <t>王貞文</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Alison Lee</t>
+          <t>Jane Wang</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4B</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -5344,7 +5484,7 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
@@ -5359,17 +5499,17 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>900</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>1370</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1048</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -5379,12 +5519,12 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>870</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1110</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -5414,29 +5554,34 @@
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1040</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>1370</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>5968</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>鄭捷齡</t>
+          <t>江晏如</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Cynthia Cheng</t>
+          <t>Jessika Jiang</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -5551,7 +5696,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1321</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -5576,7 +5721,7 @@
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1079</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
@@ -5591,24 +5736,29 @@
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1269</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>3669</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>張榕珊</t>
+          <t>張軒瑜</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sandy Chang</t>
+          <t>Mark Chang</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -5713,7 +5863,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>1305</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -5723,7 +5873,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1039</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -5733,7 +5883,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
@@ -5748,7 +5898,7 @@
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>1623</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
@@ -5758,29 +5908,34 @@
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1134</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>2928</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>4873</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>王貞文</t>
+          <t>黃秀菁</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Jane Wang</t>
+          <t>EVA Huang</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -5880,7 +6035,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>1048</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
@@ -5890,12 +6045,12 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1566</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -5925,34 +6080,39 @@
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>1040</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1976</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>2958</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>3542</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>林威宇</t>
+          <t>劉嘉鈴</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Will Lin</t>
+          <t>Nicole Liu</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -6052,7 +6212,7 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>1088</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
@@ -6077,7 +6237,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1602</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
@@ -6097,7 +6257,7 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1359</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
@@ -6107,24 +6267,29 @@
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>1088</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI33" t="inlineStr">
+        <is>
+          <t>2961</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>林雅雪</t>
+          <t>王縈嫻</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Cher Lin</t>
+          <t>Ariel Wang</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -6239,7 +6404,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>759</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -6249,7 +6414,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1091</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
@@ -6280,23 +6445,28 @@
       <c r="AH34" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>1850</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>吳燕華</t>
+          <t>陳麗芳</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Isabel Wu</t>
+          <t>Aretha Chen</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -6381,12 +6551,12 @@
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1030</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -6416,7 +6586,7 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1487</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
@@ -6436,12 +6606,12 @@
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1416</t>
         </is>
       </c>
       <c r="AG35" t="inlineStr">
@@ -6452,23 +6622,28 @@
       <c r="AH35" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>6044</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>張軒瑜</t>
+          <t>張維辛</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mark Chang</t>
+          <t>Darren Chang</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -6593,7 +6768,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>941</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
@@ -6613,7 +6788,7 @@
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1378</t>
         </is>
       </c>
       <c r="AG36" t="inlineStr">
@@ -6624,23 +6799,28 @@
       <c r="AH36" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>2319</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>林彥廷</t>
+          <t>王耀鋒</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Tim Lin</t>
+          <t>Max Wang</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -6760,7 +6940,7 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1145</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
@@ -6795,24 +6975,29 @@
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1686</t>
+        </is>
+      </c>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>2831</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>黃秀菁</t>
+          <t>陳竑廷</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>EVA Huang</t>
+          <t>Jeff Chen</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -6927,7 +7112,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1249</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -6952,7 +7137,7 @@
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1030</t>
         </is>
       </c>
       <c r="AF38" t="inlineStr">
@@ -6962,29 +7147,34 @@
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1344</t>
         </is>
       </c>
       <c r="AH38" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI38" t="inlineStr">
+        <is>
+          <t>3623</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>陳楨紘</t>
+          <t>徐韡庭</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Jane Chen</t>
+          <t>Ada Hsu</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -7084,7 +7274,7 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>1022</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
@@ -7094,12 +7284,12 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1469</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>1171</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -7109,7 +7299,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1314</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
@@ -7124,7 +7314,7 @@
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>1104</t>
+          <t>1448</t>
         </is>
       </c>
       <c r="AF39" t="inlineStr">
@@ -7139,24 +7329,29 @@
       </c>
       <c r="AH39" t="inlineStr">
         <is>
-          <t>3297</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>4231</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>黃冠叡</t>
+          <t>吳韻秋</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ray Huang</t>
+          <t>Yunchiu Wu</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -7246,7 +7441,7 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -7261,12 +7456,12 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2648</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>1324</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
@@ -7301,7 +7496,7 @@
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2539</t>
         </is>
       </c>
       <c r="AG40" t="inlineStr">
@@ -7311,24 +7506,29 @@
       </c>
       <c r="AH40" t="inlineStr">
         <is>
-          <t>1324</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI40" t="inlineStr">
+        <is>
+          <t>5687</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>吳韻秋</t>
+          <t>曾珮郁</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Yunchiu Wu</t>
+          <t>Eunice Tseng</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -7428,7 +7628,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>2648</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
@@ -7438,7 +7638,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1190</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
@@ -7453,7 +7653,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1542</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr">
@@ -7468,7 +7668,7 @@
       </c>
       <c r="AE41" t="inlineStr">
         <is>
-          <t>2539</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF41" t="inlineStr">
@@ -7478,29 +7678,34 @@
       </c>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1180</t>
         </is>
       </c>
       <c r="AH41" t="inlineStr">
         <is>
-          <t>5187</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI41" t="inlineStr">
+        <is>
+          <t>3912</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>徐國財</t>
+          <t>黃榮昌</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Richard Hsu</t>
+          <t>Hothwang Huang</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -7605,7 +7810,7 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1143</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
@@ -7625,7 +7830,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>981</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr">
@@ -7640,7 +7845,7 @@
       </c>
       <c r="AE42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="AF42" t="inlineStr">
@@ -7655,24 +7860,29 @@
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>954</t>
+        </is>
+      </c>
+      <c r="AI42" t="inlineStr">
+        <is>
+          <t>4478</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>劉嘉鈴</t>
+          <t>吳建霖</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Nicole Liu</t>
+          <t>ChienLin Wu</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -7747,7 +7957,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>974</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -7777,7 +7987,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>744</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -7792,7 +8002,7 @@
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>1602</t>
+          <t>973</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
@@ -7807,17 +8017,17 @@
       </c>
       <c r="AD43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>828</t>
         </is>
       </c>
       <c r="AE43" t="inlineStr">
         <is>
-          <t>1359</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1337</t>
         </is>
       </c>
       <c r="AG43" t="inlineStr">
@@ -7827,24 +8037,29 @@
       </c>
       <c r="AH43" t="inlineStr">
         <is>
-          <t>2961</t>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="AI43" t="inlineStr">
+        <is>
+          <t>5411</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>陳寶慧</t>
+          <t>傅子峰</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Bao Chen</t>
+          <t>Gibson Fu</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA61</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -7954,12 +8169,12 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>1656</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>1204</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -7979,7 +8194,7 @@
       </c>
       <c r="AD44" t="inlineStr">
         <is>
-          <t>1585</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE44" t="inlineStr">
@@ -7989,7 +8204,7 @@
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG44" t="inlineStr">
@@ -7999,24 +8214,29 @@
       </c>
       <c r="AH44" t="inlineStr">
         <is>
-          <t>5714</t>
+          <t>1091</t>
+        </is>
+      </c>
+      <c r="AI44" t="inlineStr">
+        <is>
+          <t>1091</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>王縈嫻</t>
+          <t>李泰儀</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ariel Wang</t>
+          <t>Tyron Lee</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA9</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -8126,7 +8346,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>759</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -8136,7 +8356,7 @@
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>1091</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
@@ -8171,24 +8391,29 @@
       </c>
       <c r="AH45" t="inlineStr">
         <is>
-          <t>1850</t>
+          <t>1739</t>
+        </is>
+      </c>
+      <c r="AI45" t="inlineStr">
+        <is>
+          <t>1739</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>吳東穎</t>
+          <t>吳佳玉</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Richie Wu</t>
+          <t>Joy Wu</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA9</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -8308,7 +8533,7 @@
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1598</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
@@ -8344,23 +8569,28 @@
       <c r="AH46" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI46" t="inlineStr">
+        <is>
+          <t>1598</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>陳麗芳</t>
+          <t>莊正忠</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Aretha Chen</t>
+          <t>Hugo Chuang</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA95</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -8475,12 +8705,12 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>1487</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>981</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
@@ -8500,7 +8730,7 @@
       </c>
       <c r="AE47" t="inlineStr">
         <is>
-          <t>1416</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF47" t="inlineStr">
@@ -8515,24 +8745,29 @@
       </c>
       <c r="AH47" t="inlineStr">
         <is>
-          <t>2903</t>
+          <t>1575</t>
+        </is>
+      </c>
+      <c r="AI47" t="inlineStr">
+        <is>
+          <t>2556</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>謝昔祥</t>
+          <t>李俊賢</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Adonis Hsieh</t>
+          <t>Kiven Lee</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA95</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -8622,12 +8857,12 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
@@ -8637,27 +8872,27 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1313</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>1256</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>1323</t>
+          <t>800</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1312</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
@@ -8672,39 +8907,44 @@
       </c>
       <c r="AE48" t="inlineStr">
         <is>
-          <t>1304</t>
+          <t>1190</t>
         </is>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>1596</t>
+          <t>1326</t>
         </is>
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1155</t>
         </is>
       </c>
       <c r="AH48" t="inlineStr">
         <is>
-          <t>5479</t>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="AI48" t="inlineStr">
+        <is>
+          <t>13196</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>王素珍</t>
+          <t>張晉榮</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Carol Wang</t>
+          <t>Barton Chang</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0B</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -8819,7 +9059,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1330</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -8844,7 +9084,7 @@
       </c>
       <c r="AE49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="AF49" t="inlineStr">
@@ -8860,23 +9100,28 @@
       <c r="AH49" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI49" t="inlineStr">
+        <is>
+          <t>2560</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>劉勝雄</t>
+          <t>郭家渝</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Vincent Liu</t>
+          <t>Zoe Kuo</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -8906,7 +9151,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1401</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -8941,7 +9186,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
@@ -9006,12 +9251,12 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1458</t>
         </is>
       </c>
       <c r="AD50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="AE50" t="inlineStr">
@@ -9026,29 +9271,34 @@
       </c>
       <c r="AG50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1282</t>
         </is>
       </c>
       <c r="AH50" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI50" t="inlineStr">
+        <is>
+          <t>5141</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>莊正忠</t>
+          <t>黃承緯</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Hugo Chuang</t>
+          <t>Eric Huang</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -9163,7 +9413,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>981</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -9173,7 +9423,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>807</t>
         </is>
       </c>
       <c r="AC51" t="inlineStr">
@@ -9198,29 +9448,34 @@
       </c>
       <c r="AG51" t="inlineStr">
         <is>
-          <t>1575</t>
+          <t>909</t>
         </is>
       </c>
       <c r="AH51" t="inlineStr">
         <is>
-          <t>2556</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI51" t="inlineStr">
+        <is>
+          <t>1716</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>陳智倫</t>
+          <t>郭亮均</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Frank Chen</t>
+          <t>Joy Kuo</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -9340,7 +9595,7 @@
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1342</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
@@ -9375,24 +9630,29 @@
       </c>
       <c r="AH52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1347</t>
+        </is>
+      </c>
+      <c r="AI52" t="inlineStr">
+        <is>
+          <t>2689</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>陳璜琪</t>
+          <t>李漩靜</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Vincent Chen</t>
+          <t>Jamie Lee</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -9492,7 +9752,7 @@
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>1341</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X53" t="inlineStr">
@@ -9502,7 +9762,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1217</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
@@ -9512,12 +9772,12 @@
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>1151</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="AC53" t="inlineStr">
@@ -9537,7 +9797,7 @@
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="AG53" t="inlineStr">
@@ -9547,24 +9807,29 @@
       </c>
       <c r="AH53" t="inlineStr">
         <is>
-          <t>2492</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI53" t="inlineStr">
+        <is>
+          <t>3617</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>劉家瑜</t>
+          <t>李品于</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Scott Liu</t>
+          <t>Spring Lee</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -9669,7 +9934,7 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1075</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
@@ -9709,7 +9974,7 @@
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1080</t>
         </is>
       </c>
       <c r="AG54" t="inlineStr">
@@ -9720,23 +9985,28 @@
       <c r="AH54" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI54" t="inlineStr">
+        <is>
+          <t>2155</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>林華宸</t>
+          <t>江德蓉</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Wayne Lin</t>
+          <t>Leila Jiang</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8C</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -9841,7 +10111,7 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1534</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
@@ -9851,12 +10121,12 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>1041</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>600</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
@@ -9866,7 +10136,7 @@
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1880</t>
         </is>
       </c>
       <c r="AD55" t="inlineStr">
@@ -9876,7 +10146,7 @@
       </c>
       <c r="AE55" t="inlineStr">
         <is>
-          <t>1384</t>
+          <t>1532</t>
         </is>
       </c>
       <c r="AF55" t="inlineStr">
@@ -9891,24 +10161,29 @@
       </c>
       <c r="AH55" t="inlineStr">
         <is>
-          <t>2425</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI55" t="inlineStr">
+        <is>
+          <t>5546</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>張雅惠</t>
+          <t>謝昔祥</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sofeya Chang</t>
+          <t>Adonis Hsieh</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8C</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -10013,7 +10288,7 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>1170</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
@@ -10028,12 +10303,12 @@
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>1021</t>
+          <t>1256</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1323</t>
         </is>
       </c>
       <c r="AC56" t="inlineStr">
@@ -10053,34 +10328,39 @@
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>976</t>
+          <t>1304</t>
         </is>
       </c>
       <c r="AG56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1596</t>
         </is>
       </c>
       <c r="AH56" t="inlineStr">
         <is>
-          <t>3167</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI56" t="inlineStr">
+        <is>
+          <t>5479</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>李俊賢</t>
+          <t>陳璜琪</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Kiven Lee</t>
+          <t>Vincent Chen</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8C</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -10180,32 +10460,32 @@
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>1313</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>1341</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>1312</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1151</t>
         </is>
       </c>
       <c r="AC57" t="inlineStr">
@@ -10215,44 +10495,49 @@
       </c>
       <c r="AD57" t="inlineStr">
         <is>
-          <t>1190</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE57" t="inlineStr">
         <is>
-          <t>1326</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>1155</t>
+          <t>1162</t>
         </is>
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH57" t="inlineStr">
         <is>
-          <t>10796</t>
+          <t>1467</t>
+        </is>
+      </c>
+      <c r="AI57" t="inlineStr">
+        <is>
+          <t>5121</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>沈麗玉</t>
+          <t>林華宸</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Lillian Shan</t>
+          <t>Wayne Lin</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -10372,7 +10657,7 @@
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1041</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
@@ -10387,7 +10672,7 @@
       </c>
       <c r="AD58" t="inlineStr">
         <is>
-          <t>950</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE58" t="inlineStr">
@@ -10397,7 +10682,7 @@
       </c>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>1630</t>
+          <t>1384</t>
         </is>
       </c>
       <c r="AG58" t="inlineStr">
@@ -10407,24 +10692,29 @@
       </c>
       <c r="AH58" t="inlineStr">
         <is>
-          <t>2580</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI58" t="inlineStr">
+        <is>
+          <t>2425</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>蔡明彬</t>
+          <t>張雅惠</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Jeff Tsai</t>
+          <t>Sofeya Chang</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -10524,7 +10814,7 @@
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>1855</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X59" t="inlineStr">
@@ -10534,7 +10824,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>1561</t>
+          <t>1170</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
@@ -10549,7 +10839,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1021</t>
         </is>
       </c>
       <c r="AC59" t="inlineStr">
@@ -10559,7 +10849,7 @@
       </c>
       <c r="AD59" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE59" t="inlineStr">
@@ -10569,34 +10859,39 @@
       </c>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>976</t>
         </is>
       </c>
       <c r="AH59" t="inlineStr">
         <is>
-          <t>5319</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI59" t="inlineStr">
+        <is>
+          <t>3167</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>曾珮郁</t>
+          <t>蔡明彬</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Eunice Tseng</t>
+          <t>Jeff Tsai</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -10701,7 +10996,7 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>1190</t>
+          <t>1855</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
@@ -10711,12 +11006,12 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1561</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>1542</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB60" t="inlineStr">
@@ -10736,39 +11031,44 @@
       </c>
       <c r="AE60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>1180</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1403</t>
         </is>
       </c>
       <c r="AH60" t="inlineStr">
         <is>
-          <t>3912</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI60" t="inlineStr">
+        <is>
+          <t>5319</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>林育田</t>
+          <t>胡美燕</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Kevin Lin</t>
+          <t>May Hu</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -10873,7 +11173,7 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>906</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
@@ -10883,7 +11183,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>922</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -10893,7 +11193,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>842</t>
         </is>
       </c>
       <c r="AC61" t="inlineStr">
@@ -10903,7 +11203,7 @@
       </c>
       <c r="AD61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>801</t>
         </is>
       </c>
       <c r="AE61" t="inlineStr">
@@ -10918,29 +11218,29 @@
       </c>
       <c r="AG61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1045</t>
         </is>
       </c>
       <c r="AH61" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI61" t="inlineStr">
+        <is>
+          <t>4516</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>黃榮昌</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Hothwang Huang</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>08</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -10960,7 +11260,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,473</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -10970,7 +11270,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,401</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -10980,7 +11280,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,611</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -10995,17 +11295,17 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,486</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,288</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,251</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
@@ -11015,1635 +11315,92 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>974</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,844</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,030</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,700</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,100</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>1143</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20,294</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11,513</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21,189</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>981</t>
+          <t>19,518</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19,095</t>
         </is>
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5,858</t>
         </is>
       </c>
       <c r="AD62" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>3,546</t>
         </is>
       </c>
       <c r="AE62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24,783</t>
         </is>
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23,225</t>
         </is>
       </c>
       <c r="AG62" t="inlineStr">
         <is>
-          <t>954</t>
+          <t>21,612</t>
         </is>
       </c>
       <c r="AH62" t="inlineStr">
         <is>
-          <t>4478</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>林子玲</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Missy Lin</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>胡美燕</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>May Hu</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W64" t="inlineStr">
-        <is>
-          <t>906</t>
-        </is>
-      </c>
-      <c r="X64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH64" t="inlineStr">
-        <is>
-          <t>906</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>董宇珊</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Joanne Tung</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W65" t="inlineStr">
-        <is>
-          <t>1616</t>
-        </is>
-      </c>
-      <c r="X65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH65" t="inlineStr">
-        <is>
-          <t>1616</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>吳建霖</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>ChienLin Wu</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z66" t="inlineStr">
-        <is>
-          <t>973</t>
-        </is>
-      </c>
-      <c r="AA66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE66" t="inlineStr">
-        <is>
-          <t>1337</t>
-        </is>
-      </c>
-      <c r="AF66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG66" t="inlineStr">
-        <is>
-          <t>555</t>
-        </is>
-      </c>
-      <c r="AH66" t="inlineStr">
-        <is>
-          <t>2865</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>徐儷珊</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Lisan Hsu</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>謝勝旭</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Benjamin Hsieh</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>謝勝旭</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Benjamin Hsieh</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>陳緯綺</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Vicky Chen</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>1,473</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>1,611</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>1,486</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>1,751</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>1,844</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W71" t="inlineStr">
-        <is>
-          <t>18,475</t>
-        </is>
-      </c>
-      <c r="X71" t="inlineStr">
-        <is>
-          <t>6,082</t>
-        </is>
-      </c>
-      <c r="Y71" t="inlineStr">
-        <is>
-          <t>9,940</t>
-        </is>
-      </c>
-      <c r="Z71" t="inlineStr">
-        <is>
-          <t>8,913</t>
-        </is>
-      </c>
-      <c r="AA71" t="inlineStr">
-        <is>
-          <t>12,164</t>
-        </is>
-      </c>
-      <c r="AB71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD71" t="inlineStr">
-        <is>
-          <t>9,357</t>
-        </is>
-      </c>
-      <c r="AE71" t="inlineStr">
-        <is>
-          <t>17,050</t>
-        </is>
-      </c>
-      <c r="AF71" t="inlineStr">
-        <is>
-          <t>12,739</t>
-        </is>
-      </c>
-      <c r="AG71" t="inlineStr">
-        <is>
-          <t>7,392</t>
-        </is>
-      </c>
-      <c r="AH71" t="inlineStr">
-        <is>
-          <t>110,277</t>
+          <t>12,983</t>
+        </is>
+      </c>
+      <c r="AI62" t="inlineStr">
+        <is>
+          <t>202,774</t>
         </is>
       </c>
     </row>
